--- a/forecasts_20200417.xlsx
+++ b/forecasts_20200417.xlsx
@@ -674,13 +674,13 @@
         <v>5559</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0737075971475565</v>
+        <v>0.0737</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000635435582072008</v>
+        <v>0.0006</v>
       </c>
       <c r="L2" t="n">
-        <v>0.165044747719869</v>
+        <v>0.165</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -701,13 +701,13 @@
         <v>502</v>
       </c>
       <c r="S2" t="n">
-        <v>0.110950611739766</v>
+        <v>0.111</v>
       </c>
       <c r="T2" t="n">
-        <v>0.014280901883503</v>
+        <v>0.0143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.234499704688246</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="3">
@@ -739,13 +739,13 @@
         <v>5755</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0910194404167644</v>
+        <v>0.091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0321209299206082</v>
+        <v>0.0321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.15913292578083</v>
+        <v>0.1591</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -766,13 +766,13 @@
         <v>501</v>
       </c>
       <c r="S3" t="n">
-        <v>0.119089920429621</v>
+        <v>0.1191</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0414724619385538</v>
+        <v>0.0415</v>
       </c>
       <c r="U3" t="n">
-        <v>0.210794760887491</v>
+        <v>0.2108</v>
       </c>
     </row>
     <row r="4">
@@ -804,13 +804,13 @@
         <v>4404</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0502729657154146</v>
+        <v>0.0503</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.111623109409949</v>
+        <v>0.1116</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -831,13 +831,13 @@
         <v>394</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0654037206510187</v>
+        <v>0.0654</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.147852604800016</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="5">
@@ -869,13 +869,13 @@
         <v>5387</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0680696274521115</v>
+        <v>0.0681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00572119409641003</v>
+        <v>0.0057</v>
       </c>
       <c r="L5" t="n">
-        <v>0.129996438227904</v>
+        <v>0.13</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -896,13 +896,13 @@
         <v>493</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0887786785674953</v>
+        <v>0.0888</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00744815613069955</v>
+        <v>0.0074</v>
       </c>
       <c r="U5" t="n">
-        <v>0.173995271497931</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="6">
@@ -934,13 +934,13 @@
         <v>6257</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0765430888698986</v>
+        <v>0.0765</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0177226122227923</v>
+        <v>0.0177</v>
       </c>
       <c r="L6" t="n">
-        <v>0.141363195736459</v>
+        <v>0.1414</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -961,13 +961,13 @@
         <v>586</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0999482082764689</v>
+        <v>0.0999</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0233061574097236</v>
+        <v>0.0233</v>
       </c>
       <c r="U6" t="n">
-        <v>0.189759331940175</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="7">
@@ -999,13 +999,13 @@
         <v>9471</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125254551099244</v>
+        <v>0.1253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0616809952234755</v>
+        <v>0.0617</v>
       </c>
       <c r="L7" t="n">
-        <v>0.198772400669127</v>
+        <v>0.1988</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1026,13 +1026,13 @@
         <v>911</v>
       </c>
       <c r="S7" t="n">
-        <v>0.164652164125677</v>
+        <v>0.1647</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0791248331813118</v>
+        <v>0.0791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.268215638123278</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="8">
@@ -1064,13 +1064,13 @@
         <v>6928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0619916271552945</v>
+        <v>0.062</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00224766964902987</v>
+        <v>0.0022</v>
       </c>
       <c r="L8" t="n">
-        <v>0.129214909680204</v>
+        <v>0.1292</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1091,13 +1091,13 @@
         <v>676</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0807826816247799</v>
+        <v>0.0808</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00288597310368662</v>
+        <v>0.0029</v>
       </c>
       <c r="U8" t="n">
-        <v>0.170906347875857</v>
+        <v>0.1709</v>
       </c>
     </row>
     <row r="9">
@@ -1129,13 +1129,13 @@
         <v>6704</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0550416985669062</v>
+        <v>0.055</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000822593484144323</v>
+        <v>0.0008</v>
       </c>
       <c r="L9" t="n">
-        <v>0.117734341874896</v>
+        <v>0.1177</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>671</v>
       </c>
       <c r="S9" t="n">
-        <v>0.071655951082257</v>
+        <v>0.0717</v>
       </c>
       <c r="T9" t="n">
-        <v>0.00108871136098889</v>
+        <v>0.0011</v>
       </c>
       <c r="U9" t="n">
-        <v>0.157047305333452</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="10">
@@ -1194,13 +1194,13 @@
         <v>7651</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0619316923770075</v>
+        <v>0.0619</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00637742174320842</v>
+        <v>0.0064</v>
       </c>
       <c r="L10" t="n">
-        <v>0.127351260269316</v>
+        <v>0.1274</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1221,13 +1221,13 @@
         <v>778</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0807038999046708</v>
+        <v>0.0807</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00840846338706136</v>
+        <v>0.0084</v>
       </c>
       <c r="U10" t="n">
-        <v>0.169791197867011</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="11">
@@ -1259,13 +1259,13 @@
         <v>10426</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0946499380846482</v>
+        <v>0.0946</v>
       </c>
       <c r="K11" t="n">
-        <v>0.033293914838871</v>
+        <v>0.0333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.163432930522377</v>
+        <v>0.1634</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1286,13 +1286,13 @@
         <v>1097</v>
       </c>
       <c r="S11" t="n">
-        <v>0.123902101957622</v>
+        <v>0.1239</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0436084839465255</v>
+        <v>0.0436</v>
       </c>
       <c r="U11" t="n">
-        <v>0.221648152371181</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="12">
@@ -1324,13 +1324,13 @@
         <v>8728</v>
       </c>
       <c r="J12" t="n">
-        <v>0.061656876906417</v>
+        <v>0.0617</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0010398250278808</v>
+        <v>0.001</v>
       </c>
       <c r="L12" t="n">
-        <v>0.124980768233147</v>
+        <v>0.125</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1351,13 +1351,13 @@
         <v>926</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0803426832461953</v>
+        <v>0.0803</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0012879120580872</v>
+        <v>0.0013</v>
       </c>
       <c r="U12" t="n">
-        <v>0.16647012538028</v>
+        <v>0.1665</v>
       </c>
     </row>
     <row r="13">
@@ -1389,13 +1389,13 @@
         <v>10702</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0763151116360299</v>
+        <v>0.0763</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0143573103891292</v>
+        <v>0.0144</v>
       </c>
       <c r="L13" t="n">
-        <v>0.144345427178356</v>
+        <v>0.1443</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1416,13 +1416,13 @@
         <v>1172</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0996473570862821</v>
+        <v>0.0996</v>
       </c>
       <c r="T13" t="n">
-        <v>0.017923609105144</v>
+        <v>0.0179</v>
       </c>
       <c r="U13" t="n">
-        <v>0.195027641219572</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="14">
@@ -1454,13 +1454,13 @@
         <v>14694</v>
       </c>
       <c r="J14" t="n">
-        <v>0.111330494665844</v>
+        <v>0.1113</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0485523547190766</v>
+        <v>0.0486</v>
       </c>
       <c r="L14" t="n">
-        <v>0.184143760006525</v>
+        <v>0.1841</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
@@ -1481,13 +1481,13 @@
         <v>1673</v>
       </c>
       <c r="S14" t="n">
-        <v>0.14607165988146</v>
+        <v>0.1461</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0621277166443697</v>
+        <v>0.0621</v>
       </c>
       <c r="U14" t="n">
-        <v>0.253116987715924</v>
+        <v>0.2531</v>
       </c>
     </row>
     <row r="15">
@@ -1519,13 +1519,13 @@
         <v>11925</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0675355769510817</v>
+        <v>0.0675</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00986515325916267</v>
+        <v>0.0099</v>
       </c>
       <c r="L15" t="n">
-        <v>0.134475046112549</v>
+        <v>0.1345</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
@@ -1546,13 +1546,13 @@
         <v>1366</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0880755681266951</v>
+        <v>0.0881</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0125816438682735</v>
+        <v>0.0126</v>
       </c>
       <c r="U15" t="n">
-        <v>0.18024989902919</v>
+        <v>0.1802</v>
       </c>
     </row>
   </sheetData>
